--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-676177.7605094867</v>
+        <v>-678837.2786215005</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13548347.89154165</v>
+        <v>13548347.89154166</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>84.08195441664867</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>202.2641834431159</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>88.52489880777333</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,7 +829,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>91.26728358384028</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>197.2597383356321</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,16 +899,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>150.2753390640423</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>262.2749581670898</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,19 +1057,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>52.25875424285989</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>237.2633516603577</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>359.0133794549787</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>30.01023028749945</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>140.0006264173053</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>243.7853716003121</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>131.7584887394948</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>116.287325111933</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>35.23631477519741</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>19.72264368952156</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016463</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,16 +2059,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>87.209015105068</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>12.96996784160042</v>
       </c>
     </row>
     <row r="20">
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>129.0096827405964</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>42.53134576113764</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>45.66054613217651</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756243</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.0280580960833</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>75.00788511618082</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>171.9586765026956</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,7 +3427,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652616</v>
+        <v>56.98118882652609</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3664,13 +3664,13 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G40" t="n">
         <v>141.2394908002291</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3901,7 +3901,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1148.907795281707</v>
+        <v>1422.760993125544</v>
       </c>
       <c r="C2" t="n">
-        <v>779.9452783412949</v>
+        <v>1218.453737122396</v>
       </c>
       <c r="D2" t="n">
-        <v>421.6795797345444</v>
+        <v>1218.453737122396</v>
       </c>
       <c r="E2" t="n">
-        <v>421.6795797345444</v>
+        <v>832.6654845241519</v>
       </c>
       <c r="F2" t="n">
         <v>421.6795797345444</v>
@@ -4328,16 +4328,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.92672505065</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="X2" t="n">
-        <v>1624.92672505065</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="Y2" t="n">
-        <v>1535.507635345828</v>
+        <v>1507.692260213068</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>1057.327935297104</v>
       </c>
       <c r="M3" t="n">
-        <v>1456.147065963532</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>665.1026499885492</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="C4" t="n">
-        <v>496.1664670606423</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>346.0498276483066</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
         <v>51.2467865680031</v>
@@ -4486,25 +4486,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1544.256944737285</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1321.27846393202</v>
       </c>
       <c r="U4" t="n">
-        <v>1437.193859129414</v>
+        <v>1321.27846393202</v>
       </c>
       <c r="V4" t="n">
-        <v>1182.509370923527</v>
+        <v>1066.593975726134</v>
       </c>
       <c r="W4" t="n">
-        <v>893.0922008865665</v>
+        <v>1066.593975726134</v>
       </c>
       <c r="X4" t="n">
-        <v>665.1026499885492</v>
+        <v>1066.593975726134</v>
       </c>
       <c r="Y4" t="n">
-        <v>665.1026499885492</v>
+        <v>845.8013965826035</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>618.7448086255752</v>
+        <v>1471.210842731383</v>
       </c>
       <c r="C5" t="n">
-        <v>618.7448086255752</v>
+        <v>1471.210842731383</v>
       </c>
       <c r="D5" t="n">
-        <v>618.7448086255752</v>
+        <v>1112.945144124633</v>
       </c>
       <c r="E5" t="n">
-        <v>618.7448086255752</v>
+        <v>727.1568915263883</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>316.1709867367808</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362819</v>
@@ -4595,22 +4595,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.012626270159</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>1768.949738926588</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W5" t="n">
-        <v>1768.949738926588</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="X5" t="n">
-        <v>1395.483980665509</v>
+        <v>1857.810682795505</v>
       </c>
       <c r="Y5" t="n">
-        <v>1005.344648689697</v>
+        <v>1857.810682795505</v>
       </c>
     </row>
     <row r="6">
@@ -4626,43 +4626,43 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>423.1489515180662</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495379</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701986</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>519.0385070447395</v>
+        <v>420.8826835256364</v>
       </c>
       <c r="C7" t="n">
-        <v>350.1023241168326</v>
+        <v>251.9465005977295</v>
       </c>
       <c r="D7" t="n">
-        <v>199.9856847044969</v>
+        <v>251.9465005977295</v>
       </c>
       <c r="E7" t="n">
-        <v>199.9856847044969</v>
+        <v>104.0334070153363</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.233965749941</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.115628253779</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V7" t="n">
-        <v>808.4556770817001</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W7" t="n">
-        <v>519.0385070447395</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="X7" t="n">
-        <v>519.0385070447395</v>
+        <v>641.6752626691665</v>
       </c>
       <c r="Y7" t="n">
-        <v>519.0385070447395</v>
+        <v>420.8826835256364</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>926.0589393552737</v>
+        <v>1990.953909778728</v>
       </c>
       <c r="C8" t="n">
-        <v>926.0589393552737</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="D8" t="n">
-        <v>926.0589393552737</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E8" t="n">
-        <v>540.2706867570294</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674218</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926625</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2407.326756999858</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>2076.263869656287</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W8" t="n">
-        <v>2076.263869656287</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="X8" t="n">
-        <v>1702.798111395207</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="Y8" t="n">
-        <v>1312.658779419395</v>
+        <v>2353.59368700598</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O9" t="n">
-        <v>1675.63996629486</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
         <v>2538.001278676482</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>769.5800553833139</v>
+        <v>623.11813092506</v>
       </c>
       <c r="C10" t="n">
-        <v>600.6438724554071</v>
+        <v>623.11813092506</v>
       </c>
       <c r="D10" t="n">
-        <v>600.6438724554071</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="E10" t="n">
-        <v>452.7307788730139</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4990,22 +4990,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1495.031345915603</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U10" t="n">
-        <v>1205.913008419441</v>
+        <v>1167.219789167907</v>
       </c>
       <c r="V10" t="n">
-        <v>951.2285202135537</v>
+        <v>912.5353009620205</v>
       </c>
       <c r="W10" t="n">
-        <v>951.2285202135537</v>
+        <v>623.11813092506</v>
       </c>
       <c r="X10" t="n">
-        <v>951.2285202135537</v>
+        <v>623.11813092506</v>
       </c>
       <c r="Y10" t="n">
-        <v>951.2285202135537</v>
+        <v>623.11813092506</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,7 +5057,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>666.6476097656489</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>516.5309703533131</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>368.61787677092</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1790.525374274257</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W13" t="n">
-        <v>1501.108204237296</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,40 +5288,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1851.318825887154</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1561.901655850193</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.912104952176</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,13 +5525,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>680.448174698413</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797758</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487565</v>
+        <v>2264.108249235167</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510506</v>
+        <v>2044.506784258108</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854704</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V19" t="n">
-        <v>1600.295939607161</v>
+        <v>1500.747069396419</v>
       </c>
       <c r="W19" t="n">
-        <v>1310.8787695702</v>
+        <v>1211.329899359458</v>
       </c>
       <c r="X19" t="n">
-        <v>1082.889218672183</v>
+        <v>1211.329899359458</v>
       </c>
       <c r="Y19" t="n">
-        <v>862.0966395286528</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,16 +5762,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>633.4413279836774</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2316.650272731174</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2097.048807754114</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1807.973581098312</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1553.289092892425</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1263.871922855465</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1035.882371957447</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>815.0897928139171</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,13 +6063,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6242,31 +6242,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,16 +6297,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>363.7369613277355</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>363.7369613277355</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>363.7369613277355</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6479,31 +6479,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.2707707770319</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>634.334587849125</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072716</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,13 +6774,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2023.366912656562</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1734.29168600076</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="35">
@@ -6929,19 +6929,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6950,37 +6950,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,16 +7008,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7026,7 +7026,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7084,22 +7084,22 @@
         <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H37" t="n">
         <v>151.3734194384023</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7160,31 +7160,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7263,7 +7263,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7312,10 +7312,10 @@
         <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580114</v>
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7424,10 +7424,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852254</v>
@@ -7451,10 +7451,10 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
         <v>656.9646031150023</v>
@@ -7555,7 +7555,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7567,16 +7567,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7728,19 +7728,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150018</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942649</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580108</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,7 +7807,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7837,19 +7837,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621885</v>
       </c>
       <c r="M3" t="n">
-        <v>240.4465442417437</v>
+        <v>60.50016306149519</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>114.3555089013348</v>
       </c>
       <c r="M6" t="n">
-        <v>168.7434581780637</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,19 +8538,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>255.5240487471569</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071647</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>294.8344935184731</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>298.6518872468319</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>149.0320621233957</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22601,19 +22601,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>297.7130398482802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>13.66255928343648</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>135.8503182118965</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>144.5956654067399</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856364</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>232.4149996343064</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>164.92862821876</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>205.6146855104944</v>
       </c>
     </row>
     <row r="20">
@@ -24136,10 +24136,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>52.01660326104815</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>138.4949402405069</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5874149221290565</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>211.1765892730633</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,10 +25126,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>45.44677382459264</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207271.1201254694</v>
+        <v>207271.1201254692</v>
       </c>
       <c r="C2" t="n">
         <v>246312.530959285</v>
       </c>
       <c r="D2" t="n">
-        <v>246312.5309592851</v>
+        <v>246312.530959285</v>
       </c>
       <c r="E2" t="n">
+        <v>242143.9799070018</v>
+      </c>
+      <c r="F2" t="n">
         <v>242143.9799070019</v>
       </c>
-      <c r="F2" t="n">
-        <v>242143.9799070018</v>
-      </c>
       <c r="G2" t="n">
-        <v>242143.9799070018</v>
+        <v>242143.9799070017</v>
       </c>
       <c r="H2" t="n">
         <v>242143.9799070018</v>
@@ -26344,13 +26344,13 @@
         <v>242143.9799070018</v>
       </c>
       <c r="M2" t="n">
-        <v>246312.5309592849</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="N2" t="n">
-        <v>246312.5309592847</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="O2" t="n">
-        <v>246312.5309592851</v>
+        <v>246312.530959285</v>
       </c>
       <c r="P2" t="n">
         <v>246312.530959285</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>152035.0117225584</v>
+        <v>152035.0117225585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58835.35725450134</v>
+        <v>58835.35725450122</v>
       </c>
       <c r="C4" t="n">
         <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.36846171968</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719674</v>
+        <v>7507.368461719647</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719672</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
+        <v>7507.368461719629</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7507.368461719649</v>
+      </c>
+      <c r="L4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="K4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7507.36846171968</v>
-      </c>
       <c r="M4" t="n">
-        <v>15498.22772481318</v>
+        <v>15498.22772481313</v>
       </c>
       <c r="N4" t="n">
         <v>15498.22772481313</v>
@@ -26470,7 +26470,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1059253.793144796</v>
+        <v>-1059579.138235078</v>
       </c>
       <c r="C6" t="n">
-        <v>20260.89497269574</v>
+        <v>20260.89497269593</v>
       </c>
       <c r="D6" t="n">
-        <v>20260.89497269617</v>
+        <v>20260.89497269597</v>
       </c>
       <c r="E6" t="n">
-        <v>-373971.3600031709</v>
+        <v>-374006.0979286064</v>
       </c>
       <c r="F6" t="n">
-        <v>133514.081621375</v>
+        <v>133479.3436959392</v>
       </c>
       <c r="G6" t="n">
-        <v>133514.081621375</v>
+        <v>133479.3436959393</v>
       </c>
       <c r="H6" t="n">
-        <v>133514.0816213751</v>
+        <v>133479.3436959393</v>
       </c>
       <c r="I6" t="n">
-        <v>133514.081621375</v>
+        <v>133479.3436959393</v>
       </c>
       <c r="J6" t="n">
-        <v>-34091.09618860754</v>
+        <v>-34125.8341140432</v>
       </c>
       <c r="K6" t="n">
-        <v>133514.0816213751</v>
+        <v>133479.3436959393</v>
       </c>
       <c r="L6" t="n">
-        <v>133514.081621375</v>
+        <v>133479.3436959393</v>
       </c>
       <c r="M6" t="n">
-        <v>-24384.82434200212</v>
+        <v>-24384.82434200222</v>
       </c>
       <c r="N6" t="n">
-        <v>127650.1873805562</v>
+        <v>127650.1873805564</v>
       </c>
       <c r="O6" t="n">
         <v>127650.1873805565</v>
@@ -26716,13 +26716,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
         <v>24.2846474920397</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,7 +26790,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
@@ -26799,7 +26799,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26811,10 +26811,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>433.9106082241344</v>
+      </c>
+      <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>433.9106082241346</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>163.0087083278917</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>232.898307948866</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,25 +27585,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>103.3951767778972</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>88.96741578556848</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,16 +27619,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>256.6007066776692</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>149.2727446058641</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27667,10 +27667,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,19 +27777,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>93.16229378007135</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>14.87429166347027</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>23.72046220850189</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>221.0350198409626</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28062,16 +28062,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>80.74806957990663</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>42.44178252088847</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,31 +31838,31 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>193.1175412796309</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>485.927610870024</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,19 +32552,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,16 +32789,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,16 +33026,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,16 +33500,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33655,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,19 +33737,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33983,10 +33983,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34448,7 +34448,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M3" t="n">
-        <v>607.3778765237842</v>
+        <v>427.4314953435357</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,13 +35015,13 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>412.0358695391851</v>
       </c>
       <c r="M6" t="n">
-        <v>535.6747904601043</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
         <v>391.197099592874</v>
@@ -35033,7 +35033,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>24.58388860977094</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>622.4553810291975</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>544.5140226420053</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>61.77582919629761</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>351.9532034556937</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191326</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,16 +36203,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,13 +36440,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,13 +36677,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,13 +37151,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,16 +37388,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37631,10 +37631,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
